--- a/Dokumentacio/Merettablazat.xlsx
+++ b/Dokumentacio/Merettablazat.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{554CB68B-93BE-4367-BAD9-23E9179EF4C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58567559-DFCF-42F2-B356-7A19D8C5817B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{70471013-7D18-40EC-A296-3135CF829C66}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{70471013-7D18-40EC-A296-3135CF829C66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="The_Marathon" sheetId="3" r:id="rId1"/>
+    <sheet name="The_Blesston" sheetId="1" r:id="rId2"/>
+    <sheet name="The_Coleton" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,9 +95,6 @@
     <t>HVAC</t>
   </si>
   <si>
-    <t>Meeting room</t>
-  </si>
-  <si>
     <t>Conference Room</t>
   </si>
   <si>
@@ -571,6 +569,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>Meeting Room</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1032,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,30 +1078,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,414 +1393,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD791B3-28F7-4340-BF77-6834B6937090}">
-  <dimension ref="B1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB9BC65-38D0-48B5-9ECF-34847CB0F477}">
+  <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD791B3-28F7-4340-BF77-6834B6937090}">
+  <dimension ref="B2:G17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="5" max="6" width="28.7109375" customWidth="1"/>
     <col min="8" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="E2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15" t="s">
+    </row>
+    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="15" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15" t="s">
+    </row>
+    <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15" t="s">
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="15" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E30" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E32" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="E19:F20"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC0C7B-BC8B-4D97-B117-4E44B400FD60}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>